--- a/controllers/script/eddData.xlsx
+++ b/controllers/script/eddData.xlsx
@@ -2,30 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f07dd4d38b1b1e6c/Desktop/promise-engine/controllers/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{E016A514-2307-4F6C-B8CD-EB928618BC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD810AE4-E899-4838-8A99-D2BA134BE3E3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_898F38C54CF21E1694601F305093B36B41A2FC8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DDDD06-B6AB-4DC7-A9B2-BF25D8C7E677}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="3840" windowWidth="21600" windowHeight="11295" xr2:uid="{2CFCF5DE-9BC2-4789-A7A1-FCFFE622EDA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>cpin</t>
   </si>
@@ -36,33 +31,85 @@
     <t>qty</t>
   </si>
   <si>
-    <t>CBONA0005DU,CCOCO0017TR,CCOCO0022TR</t>
-  </si>
-  <si>
-    <t>1,3,2</t>
+    <t>New EDD</t>
+  </si>
+  <si>
+    <t>EDD</t>
+  </si>
+  <si>
+    <t>SBD</t>
+  </si>
+  <si>
+    <t>GBD</t>
+  </si>
+  <si>
+    <t>DBD</t>
+  </si>
+  <si>
+    <t>WareHouse</t>
+  </si>
+  <si>
+    <t>CUTOFF</t>
+  </si>
+  <si>
+    <t>COURIER</t>
+  </si>
+  <si>
+    <t>Cmbinewt</t>
+  </si>
+  <si>
+    <t>Old EDD</t>
+  </si>
+  <si>
+    <t>SBD2</t>
+  </si>
+  <si>
+    <t>GBD2</t>
+  </si>
+  <si>
+    <t>DBD2</t>
+  </si>
+  <si>
+    <t>FLEDD</t>
+  </si>
+  <si>
+    <t>LLEDD</t>
+  </si>
+  <si>
+    <t>L1BD</t>
+  </si>
+  <si>
+    <t>L2BD</t>
+  </si>
+  <si>
+    <t>EDD2</t>
+  </si>
+  <si>
+    <t>WareHouse2</t>
+  </si>
+  <si>
+    <t>Cutoff2</t>
+  </si>
+  <si>
+    <t>Courier2</t>
+  </si>
+  <si>
+    <t>CmbinWt</t>
+  </si>
+  <si>
+    <t>CBONA0005DU</t>
+  </si>
+  <si>
+    <t>CAPBT0001MP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,15 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -107,14 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,45 +451,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669F0835-4249-4915-904C-A5353BDD23FF}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D2" sqref="D2:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>560037</v>
+        <v>791101</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>791101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:Y1 A3:C3 A2:C2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/controllers/script/eddData.xlsx
+++ b/controllers/script/eddData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f07dd4d38b1b1e6c/Desktop/promise-engine/controllers/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_898F38C54CF21E1694601F305093B36B41A2FC8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DDDD06-B6AB-4DC7-A9B2-BF25D8C7E677}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_D33B7AD84CF21E1694601F945013A77740A2BC06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5FFA8B-C6E8-4D2A-880D-E09B74774D75}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:Y3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y1 A3:C3 A2:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Y1 A2:C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/controllers/script/eddData.xlsx
+++ b/controllers/script/eddData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f07dd4d38b1b1e6c/Desktop/promise-engine/controllers/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D33B7AD84CF21E1694601F945013A77740A2BC06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5FFA8B-C6E8-4D2A-880D-E09B74774D75}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E047BBD98AB2982218601F4E18D5A0C541A03606" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C49466D-2273-4EFB-BAD1-E3F3449E7473}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
   <si>
     <t>cpin</t>
   </si>
@@ -97,10 +97,292 @@
     <t>CmbinWt</t>
   </si>
   <si>
-    <t>CBONA0005DU</t>
-  </si>
-  <si>
-    <t>CAPBT0001MP</t>
+    <t>DCOCO0030GL</t>
+  </si>
+  <si>
+    <t>DBONA0039BS</t>
+  </si>
+  <si>
+    <t>DFOWF0027LB</t>
+  </si>
+  <si>
+    <t>CFOWF0133BT</t>
+  </si>
+  <si>
+    <t>DFOWF0019LB</t>
+  </si>
+  <si>
+    <t>CFODF0062ST</t>
+  </si>
+  <si>
+    <t>CFODF0066ST</t>
+  </si>
+  <si>
+    <t>CFODF0071ST</t>
+  </si>
+  <si>
+    <t>DAPCL00020IG</t>
+  </si>
+  <si>
+    <t>DCOCO0005GL</t>
+  </si>
+  <si>
+    <t>DCOCO0016GL</t>
+  </si>
+  <si>
+    <t>DCOCO0017GL</t>
+  </si>
+  <si>
+    <t>DCOCO0021GL</t>
+  </si>
+  <si>
+    <t>DCOCO0022MC</t>
+  </si>
+  <si>
+    <t>DCOHA0009NM</t>
+  </si>
+  <si>
+    <t>DCOHA0104LP</t>
+  </si>
+  <si>
+    <t>DCOHA0105LP</t>
+  </si>
+  <si>
+    <t>DFOWF0005CR</t>
+  </si>
+  <si>
+    <t>CFODF0044WH</t>
+  </si>
+  <si>
+    <t>CFODF0050WH</t>
+  </si>
+  <si>
+    <t>DAPBT0001SE</t>
+  </si>
+  <si>
+    <t>CFOWF0023KK</t>
+  </si>
+  <si>
+    <t>CFOWF0174MO</t>
+  </si>
+  <si>
+    <t>CFOWF0193MO</t>
+  </si>
+  <si>
+    <t>DFOWF0003MR</t>
+  </si>
+  <si>
+    <t>SHAHL0002CPDS</t>
+  </si>
+  <si>
+    <t>CLILI0003DE</t>
+  </si>
+  <si>
+    <t>DFOWF0192FF</t>
+  </si>
+  <si>
+    <t>DFOWF0202FF</t>
+  </si>
+  <si>
+    <t>COMBO0141ST</t>
+  </si>
+  <si>
+    <t>DFODF0004BW</t>
+  </si>
+  <si>
+    <t>DFODF0010AG</t>
+  </si>
+  <si>
+    <t>DFODF0014FIP</t>
+  </si>
+  <si>
+    <t>DFODF0040DR</t>
+  </si>
+  <si>
+    <t>DFODF0060RC</t>
+  </si>
+  <si>
+    <t>CLILB0019TR</t>
+  </si>
+  <si>
+    <t>DAPCL0006PL</t>
+  </si>
+  <si>
+    <t>DAPCL0008RW</t>
+  </si>
+  <si>
+    <t>DAPCL0011BR</t>
+  </si>
+  <si>
+    <t>DAPCL0228MC</t>
+  </si>
+  <si>
+    <t>DAPCL0233MC</t>
+  </si>
+  <si>
+    <t>DBONA0007MC</t>
+  </si>
+  <si>
+    <t>DBONA0016PTR</t>
+  </si>
+  <si>
+    <t>DAPBT0172HT</t>
+  </si>
+  <si>
+    <t>DAPBT0235HT</t>
+  </si>
+  <si>
+    <t>DAPBT0236HT</t>
+  </si>
+  <si>
+    <t>DAPBT0242HT</t>
+  </si>
+  <si>
+    <t>DAPBT0243HT</t>
+  </si>
+  <si>
+    <t>DAPBT0245HT</t>
+  </si>
+  <si>
+    <t>DAPBT0249HT</t>
+  </si>
+  <si>
+    <t>DAPBT0259HT</t>
+  </si>
+  <si>
+    <t>CFOWF0010MA</t>
+  </si>
+  <si>
+    <t>DFOWF0021LB</t>
+  </si>
+  <si>
+    <t>DFOWF0033RC</t>
+  </si>
+  <si>
+    <t>CFOWF0189MO</t>
+  </si>
+  <si>
+    <t>DFODF0003WG</t>
+  </si>
+  <si>
+    <t>DFOWF0015WG</t>
+  </si>
+  <si>
+    <t>DAPBT0037HT</t>
+  </si>
+  <si>
+    <t>DFODF0008FIP</t>
+  </si>
+  <si>
+    <t>DFODF0011BT</t>
+  </si>
+  <si>
+    <t>DFODF0013CR</t>
+  </si>
+  <si>
+    <t>CTOBC0067TR</t>
+  </si>
+  <si>
+    <t>DCOHA0009TR</t>
+  </si>
+  <si>
+    <t>DCOHA0012TR</t>
+  </si>
+  <si>
+    <t>DGRSC0066PP</t>
+  </si>
+  <si>
+    <t>DHEHE0001BS</t>
+  </si>
+  <si>
+    <t>CFODF0115MO</t>
+  </si>
+  <si>
+    <t>CFOWF0033MO</t>
+  </si>
+  <si>
+    <t>CFOWF0123MO</t>
+  </si>
+  <si>
+    <t>CFOWF0157MO</t>
+  </si>
+  <si>
+    <t>COMBO0058ST</t>
+  </si>
+  <si>
+    <t>DAPBT0005FB</t>
+  </si>
+  <si>
+    <t>DAPBT0034FY</t>
+  </si>
+  <si>
+    <t>DAPBT0061HT</t>
+  </si>
+  <si>
+    <t>DFODF0031FIP</t>
+  </si>
+  <si>
+    <t>DFOPF0002CR</t>
+  </si>
+  <si>
+    <t>DFOWF0044CE</t>
+  </si>
+  <si>
+    <t>DFOWF0180FF</t>
+  </si>
+  <si>
+    <t>CFOWF0129BT</t>
+  </si>
+  <si>
+    <t>CFOWF0204MO</t>
+  </si>
+  <si>
+    <t>CLILI0007EP</t>
+  </si>
+  <si>
+    <t>DFODF0033SM</t>
+  </si>
+  <si>
+    <t>DFOWF0016LB</t>
+  </si>
+  <si>
+    <t>DFOWF0027DR</t>
+  </si>
+  <si>
+    <t>CFOWF0192MO</t>
+  </si>
+  <si>
+    <t>CFOWF0205MO</t>
+  </si>
+  <si>
+    <t>DFODF0017AG</t>
+  </si>
+  <si>
+    <t>DFODF0018SM</t>
+  </si>
+  <si>
+    <t>DFODF0022SM</t>
+  </si>
+  <si>
+    <t>DFODF0024SM</t>
+  </si>
+  <si>
+    <t>DFODF0031SM</t>
+  </si>
+  <si>
+    <t>DFODF0038SM</t>
+  </si>
+  <si>
+    <t>DFODF0046SM</t>
+  </si>
+  <si>
+    <t>DFODF0104DR</t>
+  </si>
+  <si>
+    <t>DFOWF0017LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -452,15 +734,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,32 +819,1605 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>791101</v>
+        <v>110003</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>791101</v>
+        <v>110017</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>110018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>110019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>110025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>110034</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>110053</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>110058</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>110059</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110070</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>110075</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>110085</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>110091</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>110092</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>121001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>122001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>122002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>122003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>122004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>122011</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>122017</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>122018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>122101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>141001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>160036</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>180002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>190001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>190001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>201009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>201014</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>201301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>201303</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>201304</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>201306</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>201310</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>208001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>211001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>221005</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>226010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>244001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>248001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>250001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>263139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>302021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>335001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>342006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>360001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>370001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>380015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>390012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>395007</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>400037</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>400050</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>400052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>400053</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>400058</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>400059</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>400064</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>400067</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>400068</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>400070</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>400071</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>400072</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>400078</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>400093</v>
+      </c>
+      <c r="B66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>400101</v>
+      </c>
+      <c r="B67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>400601</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>400607</v>
+      </c>
+      <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>400612</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>400615</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>400705</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>400706</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>401107</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>401202</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>401303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>403507</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>403707</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>410206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>410210</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>411001</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>411014</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>411021</v>
+      </c>
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>411045</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>411048</v>
+      </c>
+      <c r="B85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>411057</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>411060</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>421201</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>421204</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>421301</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>421503</v>
+      </c>
+      <c r="B91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>422101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>431001</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>440010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>452001</v>
+      </c>
+      <c r="B95" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>462022</v>
+      </c>
+      <c r="B96" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>492001</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>500084</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>500089</v>
+      </c>
+      <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>520010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>530016</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>560001</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>560005</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>560008</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>560016</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>560032</v>
+      </c>
+      <c r="B106" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>560035</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>560037</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>560043</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>560048</v>
+      </c>
+      <c r="B110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>560049</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>560061</v>
+      </c>
+      <c r="B112" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>560062</v>
+      </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>560064</v>
+      </c>
+      <c r="B114" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>560066</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>560067</v>
+      </c>
+      <c r="B116" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>560068</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>560076</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>560077</v>
+      </c>
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>560078</v>
+      </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>560087</v>
+      </c>
+      <c r="B121" t="s">
+        <v>43</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>560093</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>560094</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>560100</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>560102</v>
+      </c>
+      <c r="B125" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>560103</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>562125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>570019</v>
+      </c>
+      <c r="B128" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>575002</v>
+      </c>
+      <c r="B129" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>576104</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>590016</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>600099</v>
+      </c>
+      <c r="B132" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>625001</v>
+      </c>
+      <c r="B133" t="s">
+        <v>50</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>641002</v>
+      </c>
+      <c r="B134" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>670002</v>
+      </c>
+      <c r="B135" t="s">
+        <v>55</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>680014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>682024</v>
+      </c>
+      <c r="B137" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>682301</v>
+      </c>
+      <c r="B138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>686001</v>
+      </c>
+      <c r="B139" t="s">
+        <v>59</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>695009</v>
+      </c>
+      <c r="B140" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>700019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>751003</v>
+      </c>
+      <c r="B142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>781015</v>
+      </c>
+      <c r="B143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>793001</v>
+      </c>
+      <c r="B144" t="s">
+        <v>61</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>793001</v>
+      </c>
+      <c r="B145" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>801505</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y1 A2:C3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Y1 A135:C146 C134 A59:C68 A58 C58 A70:C73 A69 C69 A75:C133 A74 C74 A2:C57" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>